--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_22_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33328.61961827097</v>
+        <v>6599920.432885604</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33328.61961827097</v>
+        <v>6599920.432885604</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6505.851228937378</v>
+        <v>392124.1045292838</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6505.851228937378</v>
+        <v>392124.1045292838</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960325510.5757093</v>
+        <v>40472633.64774679</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9506.650970960152</v>
+        <v>1065704.100479711</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17331.69100427758</v>
+        <v>1852814.750687582</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25156.73103759499</v>
+        <v>2639925.400895454</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33391.09796451959</v>
+        <v>3400849.169536626</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41310.52992876018</v>
+        <v>4187719.100867229</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49229.29247814797</v>
+        <v>4974526.676916498</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57148.36837065822</v>
+        <v>5761396.608247136</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65067.44426316847</v>
+        <v>6548266.539577775</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>73138.49672554994</v>
+        <v>7305411.910760513</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>81248.43584480671</v>
+        <v>8070295.726662122</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>89216.65975992713</v>
+        <v>8865246.738357298</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>97145.48487360384</v>
+        <v>9652357.388565175</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>105074.3099872805</v>
+        <v>10439468.03877305</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>112992.2864184199</v>
+        <v>11226236.05333508</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>121145.3570621436</v>
+        <v>11978030.0232286</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276.0000000000114</v>
@@ -27058,7 +27058,7 @@
         <v>-4.037270776461809e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>215.000000000114</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
